--- a/GroceryApplicationProject/src/main/resources/TestData.xlsx
+++ b/GroceryApplicationProject/src/main/resources/TestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Netcom\Desktop\Niranjana Obsqura\JAVA\Eclipse\Grocery Application project\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Netcom\Desktop\Niranjana Obsqura\git\GroceryApplicationProject\GroceryApplicationProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603EA894-4166-45DC-BDC6-26130F80F2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42242BB-3C1C-415B-9579-018ED50F2799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="680" windowWidth="14400" windowHeight="7360" xr2:uid="{7DE7987B-6C38-4540-8212-58F6E207B931}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -43,6 +44,33 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>Darshita</t>
+  </si>
+  <si>
+    <t>D1234</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Neethu</t>
+  </si>
+  <si>
+    <t>neethu123</t>
+  </si>
+  <si>
+    <t>Staff</t>
   </si>
 </sst>
 </file>
@@ -397,7 +425,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -440,10 +468,58 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4F5952-68E5-4C83-90A4-A27AA66969A9}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/GroceryApplicationProject/src/main/resources/TestData.xlsx
+++ b/GroceryApplicationProject/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Netcom\Desktop\Niranjana Obsqura\git\GroceryApplicationProject\GroceryApplicationProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42242BB-3C1C-415B-9579-018ED50F2799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9432FAB-0B16-47E5-AAB1-4ECBD1969C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="680" windowWidth="14400" windowHeight="7360" xr2:uid="{7DE7987B-6C38-4540-8212-58F6E207B931}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Staff</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>pwd</t>
   </si>
 </sst>
 </file>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB41A160-7B3B-4832-872B-96E621C4DE0B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,6 +478,14 @@
       </c>
       <c r="B5" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
